--- a/计算器测试.xlsx
+++ b/计算器测试.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\GrapeCity\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="126">
   <si>
     <t>表达式</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -372,6 +372,80 @@
   </si>
   <si>
     <t>2.符号为中文格式会陷入死循环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.9+1.08+0.92+0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>89+124+11+26+48</t>
+  </si>
+  <si>
+    <t>298.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>298</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>875-147-23</t>
+  </si>
+  <si>
+    <t>705</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1600.0</t>
+  </si>
+  <si>
+    <t>1600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>125*64</t>
+  </si>
+  <si>
+    <t>8000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>280+840/24*5</t>
+  </si>
+  <si>
+    <t>455.0</t>
+  </si>
+  <si>
+    <t>455</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>85*(95-1440/24)</t>
+  </si>
+  <si>
+    <t>2975.0</t>
+  </si>
+  <si>
+    <t>2975</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8100/4/75</t>
+  </si>
+  <si>
+    <t>27.0</t>
+  </si>
+  <si>
+    <t>27</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -441,7 +515,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -461,6 +535,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -845,10 +922,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -873,7 +950,7 @@
       <c r="D1" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="7" t="s">
         <v>92</v>
       </c>
     </row>
@@ -890,7 +967,7 @@
       <c r="D2" t="s">
         <v>104</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -1306,6 +1383,94 @@
       </c>
       <c r="C39" s="2" t="s">
         <v>103</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
